--- a/rezultati/rezultati_tlrr_brez_slovar_fixed_lambda_fourier_transform/rezultati_tlrr_brez_slovar60.xlsx
+++ b/rezultati/rezultati_tlrr_brez_slovar_fixed_lambda_fourier_transform/rezultati_tlrr_brez_slovar60.xlsx
@@ -115,16 +115,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C2" s="0">
-        <v>31.685936300000002</v>
+        <v>15.2903664</v>
       </c>
       <c r="D2" s="0">
-        <v>12.403356697188656</v>
+        <v>12.417309043648899</v>
       </c>
       <c r="E2" s="0">
-        <v>0.035857742602003813</v>
+        <v>0.036718503568592985</v>
       </c>
       <c r="F2" s="0">
-        <v>0.49502434013510549</v>
+        <v>0.49422980933642224</v>
       </c>
     </row>
     <row r="3">
@@ -135,16 +135,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C3" s="0">
-        <v>31.0766624</v>
+        <v>11.7935438</v>
       </c>
       <c r="D3" s="0">
-        <v>11.018020751246368</v>
+        <v>11.03340968236264</v>
       </c>
       <c r="E3" s="0">
-        <v>0.15615051140239827</v>
+        <v>0.15776614923028381</v>
       </c>
       <c r="F3" s="0">
-        <v>0.6967298440513876</v>
+        <v>0.69549652938544826</v>
       </c>
     </row>
     <row r="4">
@@ -155,16 +155,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>30.827991699999998</v>
+        <v>15.2323866</v>
       </c>
       <c r="D4" s="0">
-        <v>9.712882889809304</v>
+        <v>9.7027399405644612</v>
       </c>
       <c r="E4" s="0">
-        <v>0.086096761827161389</v>
+        <v>0.086511962992909197</v>
       </c>
       <c r="F4" s="0">
-        <v>0.9024307703848361</v>
+        <v>0.90348519962040885</v>
       </c>
     </row>
     <row r="5">
@@ -175,16 +175,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C5" s="0">
-        <v>30.894512299999999</v>
+        <v>15.0146964</v>
       </c>
       <c r="D5" s="0">
-        <v>10.549790014572871</v>
+        <v>10.542474577953795</v>
       </c>
       <c r="E5" s="0">
-        <v>0.099909563179359215</v>
+        <v>0.099654520122291326</v>
       </c>
       <c r="F5" s="0">
-        <v>0.64509796578370726</v>
+        <v>0.64564150954599353</v>
       </c>
     </row>
     <row r="6">
@@ -195,16 +195,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C6" s="0">
-        <v>31.6129672</v>
+        <v>11.4058753</v>
       </c>
       <c r="D6" s="0">
-        <v>10.417336089528801</v>
+        <v>10.428448052076572</v>
       </c>
       <c r="E6" s="0">
-        <v>0.089654770357018784</v>
+        <v>0.091232617992926479</v>
       </c>
       <c r="F6" s="0">
-        <v>0.81427923794283663</v>
+        <v>0.81323818682677707</v>
       </c>
     </row>
     <row r="7">
@@ -215,16 +215,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C7" s="0">
-        <v>31.460289800000002</v>
+        <v>15.168778</v>
       </c>
       <c r="D7" s="0">
-        <v>11.134620288987652</v>
+        <v>11.132890118444212</v>
       </c>
       <c r="E7" s="0">
-        <v>0.079212408164677076</v>
+        <v>0.078576930803226183</v>
       </c>
       <c r="F7" s="0">
-        <v>0.52728503750777889</v>
+        <v>0.52739007958697415</v>
       </c>
     </row>
     <row r="8">
@@ -235,16 +235,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C8" s="0">
-        <v>31.821754599999998</v>
+        <v>11.143130599999999</v>
       </c>
       <c r="D8" s="0">
-        <v>9.6567520153860276</v>
+        <v>9.6543129185948668</v>
       </c>
       <c r="E8" s="0">
-        <v>0.095052765439939901</v>
+        <v>0.095333439874104378</v>
       </c>
       <c r="F8" s="0">
-        <v>0.57260604504404378</v>
+        <v>0.57276686192522352</v>
       </c>
     </row>
     <row r="9">
@@ -255,16 +255,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C9" s="0">
-        <v>25.153526599999999</v>
+        <v>9.1326637000000002</v>
       </c>
       <c r="D9" s="0">
-        <v>10.611726742020828</v>
+        <v>10.615723711767327</v>
       </c>
       <c r="E9" s="0">
-        <v>0.17815447808403045</v>
+        <v>0.17784108940604476</v>
       </c>
       <c r="F9" s="0">
-        <v>0.60087380871981866</v>
+        <v>0.60059736934139019</v>
       </c>
     </row>
     <row r="10">
@@ -275,16 +275,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C10" s="0">
-        <v>24.692941699999999</v>
+        <v>9.1678992000000008</v>
       </c>
       <c r="D10" s="0">
-        <v>10.146160999913443</v>
+        <v>10.135820410039603</v>
       </c>
       <c r="E10" s="0">
-        <v>0.10660442171695909</v>
+        <v>0.10599659102387914</v>
       </c>
       <c r="F10" s="0">
-        <v>0.72736683807488944</v>
+        <v>0.72823328715291924</v>
       </c>
     </row>
     <row r="11">
@@ -295,16 +295,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C11" s="0">
-        <v>24.605832400000001</v>
+        <v>13.8404417</v>
       </c>
       <c r="D11" s="0">
-        <v>9.502492618669331</v>
+        <v>9.5249063542048447</v>
       </c>
       <c r="E11" s="0">
-        <v>0.082727446351083908</v>
+        <v>0.083765042787709049</v>
       </c>
       <c r="F11" s="0">
-        <v>0.50957221329021019</v>
+        <v>0.50825896921068869</v>
       </c>
     </row>
     <row r="12">
@@ -315,16 +315,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C12" s="0">
-        <v>24.7764305</v>
+        <v>9.5808025000000008</v>
       </c>
       <c r="D12" s="0">
-        <v>10.344609136501106</v>
+        <v>10.334513778382545</v>
       </c>
       <c r="E12" s="0">
-        <v>0.13637409793683261</v>
+        <v>0.13575536867395249</v>
       </c>
       <c r="F12" s="0">
-        <v>0.58714980585524534</v>
+        <v>0.58783262981629514</v>
       </c>
     </row>
     <row r="13">
@@ -335,16 +335,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C13" s="0">
-        <v>30.946390699999998</v>
+        <v>11.722841799999999</v>
       </c>
       <c r="D13" s="0">
-        <v>11.118423104060213</v>
+        <v>11.129611104934362</v>
       </c>
       <c r="E13" s="0">
-        <v>0.060399504310017234</v>
+        <v>0.060359344344039646</v>
       </c>
       <c r="F13" s="0">
-        <v>0.73020663020484078</v>
+        <v>0.72926668121246618</v>
       </c>
     </row>
     <row r="14">
@@ -355,16 +355,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>30.612994700000002</v>
+        <v>11.4755693</v>
       </c>
       <c r="D14" s="0">
-        <v>9.6880162060277275</v>
+        <v>9.6912018268470685</v>
       </c>
       <c r="E14" s="0">
-        <v>0.095182514538399168</v>
+        <v>0.094228994706452643</v>
       </c>
       <c r="F14" s="0">
-        <v>0.44141414612223928</v>
+        <v>0.44125228357041113</v>
       </c>
     </row>
     <row r="15">
@@ -375,16 +375,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C15" s="0">
-        <v>30.906721000000001</v>
+        <v>15.299442600000001</v>
       </c>
       <c r="D15" s="0">
-        <v>9.8705634674042599</v>
+        <v>9.8608440035077081</v>
       </c>
       <c r="E15" s="0">
-        <v>0.055306034201262261</v>
+        <v>0.054758312229729461</v>
       </c>
       <c r="F15" s="0">
-        <v>0.45102397230036051</v>
+        <v>0.45152894818513295</v>
       </c>
     </row>
     <row r="16">
@@ -395,16 +395,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C16" s="0">
-        <v>30.847657600000002</v>
+        <v>11.462680300000001</v>
       </c>
       <c r="D16" s="0">
-        <v>10.453332012620187</v>
+        <v>10.454224548199493</v>
       </c>
       <c r="E16" s="0">
-        <v>0.090419855239707025</v>
+        <v>0.09014964040217191</v>
       </c>
       <c r="F16" s="0">
-        <v>0.88604001016410261</v>
+        <v>0.88594896806745693</v>
       </c>
     </row>
     <row r="17">
@@ -415,16 +415,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C17" s="0">
-        <v>30.789623800000001</v>
+        <v>11.763793400000001</v>
       </c>
       <c r="D17" s="0">
-        <v>9.9869881171292221</v>
+        <v>9.9833913070466949</v>
       </c>
       <c r="E17" s="0">
-        <v>0.10193358623749882</v>
+        <v>0.10000349356443639</v>
       </c>
       <c r="F17" s="0">
-        <v>0.99209672844515173</v>
+        <v>0.99250763885235216</v>
       </c>
     </row>
     <row r="18">
@@ -435,16 +435,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C18" s="0">
-        <v>30.657666500000001</v>
+        <v>15.213234099999999</v>
       </c>
       <c r="D18" s="0">
-        <v>9.5890487461918248</v>
+        <v>9.596200217553525</v>
       </c>
       <c r="E18" s="0">
-        <v>0.063492748252617179</v>
+        <v>0.063706445920371557</v>
       </c>
       <c r="F18" s="0">
-        <v>1.0650683132608834</v>
+        <v>1.0641917570191792</v>
       </c>
     </row>
     <row r="19">
@@ -455,16 +455,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C19" s="0">
-        <v>31.3016738</v>
+        <v>15.770687499999999</v>
       </c>
       <c r="D19" s="0">
-        <v>11.509980874440632</v>
+        <v>11.495809745163832</v>
       </c>
       <c r="E19" s="0">
-        <v>0.062253724776308229</v>
+        <v>0.061160130151621986</v>
       </c>
       <c r="F19" s="0">
-        <v>0.65665264245903732</v>
+        <v>0.65772485325463625</v>
       </c>
     </row>
     <row r="20">
@@ -475,16 +475,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C20" s="0">
-        <v>30.722019899999999</v>
+        <v>12.6907707</v>
       </c>
       <c r="D20" s="0">
-        <v>9.8616140518893296</v>
+        <v>9.8592467409437905</v>
       </c>
       <c r="E20" s="0">
-        <v>0.10067852505712264</v>
+        <v>0.10110863790562633</v>
       </c>
       <c r="F20" s="0">
-        <v>0.64151635571784926</v>
+        <v>0.64169122274089885</v>
       </c>
     </row>
     <row r="21">
@@ -495,16 +495,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C21" s="0">
-        <v>31.6597364</v>
+        <v>16.163255299999999</v>
       </c>
       <c r="D21" s="0">
-        <v>11.637626227735023</v>
+        <v>11.652948915784336</v>
       </c>
       <c r="E21" s="0">
-        <v>0.055211942257077845</v>
+        <v>0.055886290194607939</v>
       </c>
       <c r="F21" s="0">
-        <v>0.52556170573191452</v>
+        <v>0.52463538506069507</v>
       </c>
     </row>
     <row r="22">
@@ -515,16 +515,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C22" s="0">
-        <v>30.869618200000001</v>
+        <v>15.491153799999999</v>
       </c>
       <c r="D22" s="0">
-        <v>10.879318366787526</v>
+        <v>10.892862401768916</v>
       </c>
       <c r="E22" s="0">
-        <v>0.11808360456454556</v>
+        <v>0.1176012430029197</v>
       </c>
       <c r="F22" s="0">
-        <v>0.70142323690761166</v>
+        <v>0.70033034967577845</v>
       </c>
     </row>
     <row r="23">
@@ -535,16 +535,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C23" s="0">
-        <v>31.05134</v>
+        <v>16.6560162</v>
       </c>
       <c r="D23" s="0">
-        <v>10.248710131116265</v>
+        <v>10.232745448939962</v>
       </c>
       <c r="E23" s="0">
-        <v>0.094286229586680481</v>
+        <v>0.09439831684277504</v>
       </c>
       <c r="F23" s="0">
-        <v>0.74205300934548468</v>
+        <v>0.74341815841986358</v>
       </c>
     </row>
     <row r="24">
@@ -555,16 +555,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C24" s="0">
-        <v>30.9710179</v>
+        <v>17.5426751</v>
       </c>
       <c r="D24" s="0">
-        <v>10.628800269883573</v>
+        <v>10.625975098670473</v>
       </c>
       <c r="E24" s="0">
-        <v>0.12411877918241387</v>
+        <v>0.12386511674260491</v>
       </c>
       <c r="F24" s="0">
-        <v>0.65946584377477546</v>
+        <v>0.6596803764277106</v>
       </c>
     </row>
     <row r="25">
@@ -575,16 +575,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C25" s="0">
-        <v>31.188708800000001</v>
+        <v>16.1082851</v>
       </c>
       <c r="D25" s="0">
-        <v>10.769424098012141</v>
+        <v>10.773358353722053</v>
       </c>
       <c r="E25" s="0">
-        <v>0.1690119502214065</v>
+        <v>0.16912695492318292</v>
       </c>
       <c r="F25" s="0">
-        <v>0.64008464814025146</v>
+        <v>0.63979478877601659</v>
       </c>
     </row>
     <row r="26">
@@ -595,16 +595,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C26" s="0">
-        <v>31.349449199999999</v>
+        <v>15.888791100000001</v>
       </c>
       <c r="D26" s="0">
-        <v>10.28287374861743</v>
+        <v>10.283546642294068</v>
       </c>
       <c r="E26" s="0">
-        <v>0.13809978508070117</v>
+        <v>0.13749042773342501</v>
       </c>
       <c r="F26" s="0">
-        <v>0.60920625151299257</v>
+        <v>0.60915905828658867</v>
       </c>
     </row>
     <row r="27">
@@ -615,16 +615,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C27" s="0">
-        <v>30.8371165</v>
+        <v>12.019260900000001</v>
       </c>
       <c r="D27" s="0">
-        <v>9.4880066869313424</v>
+        <v>9.487535758583304</v>
       </c>
       <c r="E27" s="0">
-        <v>0.2131577819289362</v>
+        <v>0.21127842489902918</v>
       </c>
       <c r="F27" s="0">
-        <v>0.63484100846195735</v>
+        <v>0.63487542896976557</v>
       </c>
     </row>
     <row r="28">
@@ -635,16 +635,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C28" s="0">
-        <v>24.766346500000001</v>
+        <v>10.3133432</v>
       </c>
       <c r="D28" s="0">
-        <v>9.5940688793680078</v>
+        <v>9.572216905680154</v>
       </c>
       <c r="E28" s="0">
-        <v>0.16348118339390444</v>
+        <v>0.16223644973637102</v>
       </c>
       <c r="F28" s="0">
-        <v>0.6587146678610879</v>
+        <v>0.66037394950963602</v>
       </c>
     </row>
     <row r="29">
@@ -655,16 +655,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C29" s="0">
-        <v>30.759366700000001</v>
+        <v>15.282969100000001</v>
       </c>
       <c r="D29" s="0">
-        <v>9.6906046948748354</v>
+        <v>9.6942609899908341</v>
       </c>
       <c r="E29" s="0">
-        <v>0.16770395580925065</v>
+        <v>0.168501887343634</v>
       </c>
       <c r="F29" s="0">
-        <v>0.76819972312630269</v>
+        <v>0.76787642016876878</v>
       </c>
     </row>
     <row r="30">
@@ -675,16 +675,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C30" s="0">
-        <v>30.939370400000001</v>
+        <v>15.700833100000001</v>
       </c>
       <c r="D30" s="0">
-        <v>10.506875386454531</v>
+        <v>10.52003735577923</v>
       </c>
       <c r="E30" s="0">
-        <v>0.10130858598311727</v>
+        <v>0.10024975972681986</v>
       </c>
       <c r="F30" s="0">
-        <v>0.4745455486312572</v>
+        <v>0.47382700116286997</v>
       </c>
     </row>
     <row r="31">
@@ -695,16 +695,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C31" s="0">
-        <v>30.436133000000002</v>
+        <v>11.1981521</v>
       </c>
       <c r="D31" s="0">
-        <v>9.3191445971634135</v>
+        <v>9.3303663688822276</v>
       </c>
       <c r="E31" s="0">
-        <v>0.11890949096242386</v>
+        <v>0.12009969902075046</v>
       </c>
       <c r="F31" s="0">
-        <v>0.80928690677375548</v>
+        <v>0.80824202026245062</v>
       </c>
     </row>
     <row r="32">
@@ -715,16 +715,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C32" s="0">
-        <v>30.648350000000001</v>
+        <v>11.4315432</v>
       </c>
       <c r="D32" s="0">
-        <v>10.158281559869579</v>
+        <v>10.144225039296016</v>
       </c>
       <c r="E32" s="0">
-        <v>0.12311272487217481</v>
+        <v>0.12145617318839792</v>
       </c>
       <c r="F32" s="0">
-        <v>0.83053681127941759</v>
+        <v>0.83188197105518735</v>
       </c>
     </row>
     <row r="33">
@@ -735,16 +735,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C33" s="0">
-        <v>31.045270899999998</v>
+        <v>11.3626492</v>
       </c>
       <c r="D33" s="0">
-        <v>10.360125705787013</v>
+        <v>10.371483152503371</v>
       </c>
       <c r="E33" s="0">
-        <v>0.10306760049632439</v>
+        <v>0.10341148685261109</v>
       </c>
       <c r="F33" s="0">
-        <v>0.91745278414316689</v>
+        <v>0.91625393035824165</v>
       </c>
     </row>
     <row r="34">
@@ -755,16 +755,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C34" s="0">
-        <v>29.733765699999999</v>
+        <v>10.939293899999999</v>
       </c>
       <c r="D34" s="0">
-        <v>7.6063641985090582</v>
+        <v>7.596857237652622</v>
       </c>
       <c r="E34" s="0">
-        <v>0.022005237038075141</v>
+        <v>0.021429661431508595</v>
       </c>
       <c r="F34" s="0">
-        <v>0.68732119225242483</v>
+        <v>0.68807389730153268</v>
       </c>
     </row>
     <row r="35">
@@ -775,16 +775,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C35" s="0">
-        <v>24.5721746</v>
+        <v>9.5378229999999995</v>
       </c>
       <c r="D35" s="0">
-        <v>10.161950617608595</v>
+        <v>10.168608030156081</v>
       </c>
       <c r="E35" s="0">
-        <v>0.20170011665801649</v>
+        <v>0.20302423242209233</v>
       </c>
       <c r="F35" s="0">
-        <v>0.61204781049988399</v>
+        <v>0.61157887826542823</v>
       </c>
     </row>
     <row r="36">
@@ -795,16 +795,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C36" s="0">
-        <v>31.2377912</v>
+        <v>12.5986964</v>
       </c>
       <c r="D36" s="0">
-        <v>11.396630451681544</v>
+        <v>11.395795383303559</v>
       </c>
       <c r="E36" s="0">
-        <v>0.15588394558238375</v>
+        <v>0.15610832429848939</v>
       </c>
       <c r="F36" s="0">
-        <v>0.59816489907575221</v>
+        <v>0.59822240989216735</v>
       </c>
     </row>
     <row r="37">
@@ -815,16 +815,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C37" s="0">
-        <v>24.823633699999998</v>
+        <v>10.267572599999999</v>
       </c>
       <c r="D37" s="0">
-        <v>10.916320316267306</v>
+        <v>10.930713376550026</v>
       </c>
       <c r="E37" s="0">
-        <v>0.186435943995714</v>
+        <v>0.18703350443103198</v>
       </c>
       <c r="F37" s="0">
-        <v>0.70216883442434186</v>
+        <v>0.70100626041364811</v>
       </c>
     </row>
     <row r="38">
@@ -835,16 +835,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C38" s="0">
-        <v>31.100959899999999</v>
+        <v>16.550508000000001</v>
       </c>
       <c r="D38" s="0">
-        <v>11.483936681630489</v>
+        <v>11.475641678387589</v>
       </c>
       <c r="E38" s="0">
-        <v>0.13623634973111509</v>
+        <v>0.13491294022275724</v>
       </c>
       <c r="F38" s="0">
-        <v>0.62131076393030382</v>
+        <v>0.62190439759607752</v>
       </c>
     </row>
     <row r="39">
@@ -855,16 +855,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C39" s="0">
-        <v>30.8047173</v>
+        <v>15.312269300000001</v>
       </c>
       <c r="D39" s="0">
-        <v>11.053250745489898</v>
+        <v>11.063788014904425</v>
       </c>
       <c r="E39" s="0">
-        <v>0.12166100692997509</v>
+        <v>0.12154247704278424</v>
       </c>
       <c r="F39" s="0">
-        <v>0.52220834890197676</v>
+        <v>0.52157521702061604</v>
       </c>
     </row>
     <row r="40">
@@ -875,16 +875,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C40" s="0">
-        <v>24.8738283</v>
+        <v>10.737290700000001</v>
       </c>
       <c r="D40" s="0">
-        <v>9.9120969570027402</v>
+        <v>9.9134916789281817</v>
       </c>
       <c r="E40" s="0">
-        <v>0.11410212342913406</v>
+        <v>0.115330056425031</v>
       </c>
       <c r="F40" s="0">
-        <v>0.55426054391369983</v>
+        <v>0.55417155161656184</v>
       </c>
     </row>
     <row r="41">
@@ -895,16 +895,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C41" s="0">
-        <v>31.877866999999998</v>
+        <v>16.3515865</v>
       </c>
       <c r="D41" s="0">
-        <v>12.625136949209901</v>
+        <v>12.635534960753631</v>
       </c>
       <c r="E41" s="0">
-        <v>0.087574249640322732</v>
+        <v>0.089116594434331911</v>
       </c>
       <c r="F41" s="0">
-        <v>0.47195619117598264</v>
+        <v>0.47139154323147553</v>
       </c>
     </row>
     <row r="42">
@@ -915,16 +915,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C42" s="0">
-        <v>30.871024800000001</v>
+        <v>11.8193398</v>
       </c>
       <c r="D42" s="0">
-        <v>10.439920470512746</v>
+        <v>10.445176878175793</v>
       </c>
       <c r="E42" s="0">
-        <v>0.06825040197637737</v>
+        <v>0.068413046630582258</v>
       </c>
       <c r="F42" s="0">
-        <v>0.54891428043445067</v>
+        <v>0.54858219650546602</v>
       </c>
     </row>
     <row r="43">
@@ -935,16 +935,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>24.738678</v>
+        <v>9.4739448999999993</v>
       </c>
       <c r="D43" s="0">
-        <v>10.263592757665245</v>
+        <v>10.250374401319524</v>
       </c>
       <c r="E43" s="0">
-        <v>0.099077997667861212</v>
+        <v>0.098578587785394772</v>
       </c>
       <c r="F43" s="0">
-        <v>0.83341586584571781</v>
+        <v>0.83468513993152849</v>
       </c>
     </row>
     <row r="44">
@@ -955,16 +955,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C44" s="0">
-        <v>24.9170452</v>
+        <v>9.6150102999999998</v>
       </c>
       <c r="D44" s="0">
-        <v>11.129486443829837</v>
+        <v>11.13791878808544</v>
       </c>
       <c r="E44" s="0">
-        <v>0.092234085281168998</v>
+        <v>0.092214801616238296</v>
       </c>
       <c r="F44" s="0">
-        <v>0.64646891109646498</v>
+        <v>0.64584161747081337</v>
       </c>
     </row>
     <row r="45">
@@ -975,16 +975,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C45" s="0">
-        <v>30.579253900000001</v>
+        <v>15.495723399999999</v>
       </c>
       <c r="D45" s="0">
-        <v>9.6325736216246653</v>
+        <v>9.6385063892004155</v>
       </c>
       <c r="E45" s="0">
-        <v>0.13895297806896359</v>
+        <v>0.13764558243314526</v>
       </c>
       <c r="F45" s="0">
-        <v>0.81450633296765573</v>
+        <v>0.8139501865011336</v>
       </c>
     </row>
     <row r="46">
@@ -995,16 +995,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C46" s="0">
-        <v>31.152032699999999</v>
+        <v>15.6438527</v>
       </c>
       <c r="D46" s="0">
-        <v>10.995976900414048</v>
+        <v>11.02181460250816</v>
       </c>
       <c r="E46" s="0">
-        <v>0.067777437572543689</v>
+        <v>0.068841049125557108</v>
       </c>
       <c r="F46" s="0">
-        <v>0.62466448979995859</v>
+        <v>0.62280907671290409</v>
       </c>
     </row>
     <row r="47">
@@ -1015,16 +1015,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C47" s="0">
-        <v>30.887762299999999</v>
+        <v>11.6311585</v>
       </c>
       <c r="D47" s="0">
-        <v>10.119784164445456</v>
+        <v>10.123506459399918</v>
       </c>
       <c r="E47" s="0">
-        <v>0.10754986232943811</v>
+        <v>0.10792479801681847</v>
       </c>
       <c r="F47" s="0">
-        <v>0.78110380599096685</v>
+        <v>0.78076913954124583</v>
       </c>
     </row>
     <row r="48">
@@ -1035,16 +1035,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>30.8578358</v>
+        <v>16.4624445</v>
       </c>
       <c r="D48" s="0">
-        <v>10.603951251746281</v>
+        <v>10.602145559885807</v>
       </c>
       <c r="E48" s="0">
-        <v>0.10977560893902401</v>
+        <v>0.10967932367761166</v>
       </c>
       <c r="F48" s="0">
-        <v>0.51775177096915481</v>
+        <v>0.51785941651630352</v>
       </c>
     </row>
     <row r="49">
@@ -1055,16 +1055,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C49" s="0">
-        <v>24.996417099999999</v>
+        <v>9.8466173000000001</v>
       </c>
       <c r="D49" s="0">
-        <v>12.080877658986338</v>
+        <v>12.073890023932615</v>
       </c>
       <c r="E49" s="0">
-        <v>0.048431178794895315</v>
+        <v>0.049077001925148189</v>
       </c>
       <c r="F49" s="0">
-        <v>0.5453619790015426</v>
+        <v>0.54580088899304779</v>
       </c>
     </row>
     <row r="50">
@@ -1075,16 +1075,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C50" s="0">
-        <v>30.965945900000001</v>
+        <v>17.280797700000001</v>
       </c>
       <c r="D50" s="0">
-        <v>10.590660131377582</v>
+        <v>10.607899265197364</v>
       </c>
       <c r="E50" s="0">
-        <v>0.15413351652277338</v>
+        <v>0.1542567249780126</v>
       </c>
       <c r="F50" s="0">
-        <v>0.57358727852116942</v>
+        <v>0.57244999240461725</v>
       </c>
     </row>
     <row r="51">
@@ -1095,16 +1095,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C51" s="0">
-        <v>31.053941600000002</v>
+        <v>16.009908899999999</v>
       </c>
       <c r="D51" s="0">
-        <v>11.652439996235266</v>
+        <v>11.650970670852034</v>
       </c>
       <c r="E51" s="0">
-        <v>0.12091020675646204</v>
+        <v>0.12191466906314305</v>
       </c>
       <c r="F51" s="0">
-        <v>0.58255286292607089</v>
+        <v>0.58265141726493497</v>
       </c>
     </row>
     <row r="52">
@@ -1115,16 +1115,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C52" s="0">
-        <v>30.6517886</v>
+        <v>12.2787779</v>
       </c>
       <c r="D52" s="0">
-        <v>9.696038294044973</v>
+        <v>9.7083405659216737</v>
       </c>
       <c r="E52" s="0">
-        <v>0.096414885162266387</v>
+        <v>0.096237239283193096</v>
       </c>
       <c r="F52" s="0">
-        <v>0.55695795688899763</v>
+        <v>0.55616966709111515</v>
       </c>
     </row>
     <row r="53">
@@ -1135,16 +1135,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C53" s="0">
-        <v>30.827168</v>
+        <v>12.1892821</v>
       </c>
       <c r="D53" s="0">
-        <v>10.287587460161907</v>
+        <v>10.288753537099744</v>
       </c>
       <c r="E53" s="0">
-        <v>0.12984616687718667</v>
+        <v>0.13012298158478963</v>
       </c>
       <c r="F53" s="0">
-        <v>0.4622429265226442</v>
+        <v>0.46218087477441949</v>
       </c>
     </row>
     <row r="54">
@@ -1155,16 +1155,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C54" s="0">
-        <v>30.920076399999999</v>
+        <v>12.2800309</v>
       </c>
       <c r="D54" s="0">
-        <v>11.272539197722985</v>
+        <v>11.2707860864745</v>
       </c>
       <c r="E54" s="0">
-        <v>0.15302804493590805</v>
+        <v>0.15300887443007261</v>
       </c>
       <c r="F54" s="0">
-        <v>0.61623590427026642</v>
+        <v>0.61636029442161921</v>
       </c>
     </row>
     <row r="55">
@@ -1175,16 +1175,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C55" s="0">
-        <v>30.716475899999999</v>
+        <v>12.110484</v>
       </c>
       <c r="D55" s="0">
-        <v>9.6260423299670244</v>
+        <v>9.6159046908901775</v>
       </c>
       <c r="E55" s="0">
-        <v>0.085828089956709389</v>
+        <v>0.085136133702719816</v>
       </c>
       <c r="F55" s="0">
-        <v>0.45577897543675289</v>
+        <v>0.45631124333210049</v>
       </c>
     </row>
     <row r="56">
@@ -1195,16 +1195,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C56" s="0">
-        <v>31.963036500000001</v>
+        <v>18.410916100000001</v>
       </c>
       <c r="D56" s="0">
-        <v>11.460927909510271</v>
+        <v>11.461714347231219</v>
       </c>
       <c r="E56" s="0">
-        <v>0.15530534096997078</v>
+        <v>0.15664697305491815</v>
       </c>
       <c r="F56" s="0">
-        <v>0.43770244856242324</v>
+        <v>0.43766281990635236</v>
       </c>
     </row>
     <row r="57">
@@ -1215,16 +1215,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C57" s="0">
-        <v>24.979984399999999</v>
+        <v>9.8708109999999998</v>
       </c>
       <c r="D57" s="0">
-        <v>10.912780202204239</v>
+        <v>10.934899724751375</v>
       </c>
       <c r="E57" s="0">
-        <v>0.16132408395369391</v>
+        <v>0.16379642731086708</v>
       </c>
       <c r="F57" s="0">
-        <v>0.51471142307724138</v>
+        <v>0.51340232441975076</v>
       </c>
     </row>
     <row r="58">
@@ -1235,16 +1235,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>24.854225799999998</v>
+        <v>9.9097120000000007</v>
       </c>
       <c r="D58" s="0">
-        <v>10.353818233088434</v>
+        <v>10.361170401526271</v>
       </c>
       <c r="E58" s="0">
-        <v>0.10657445229705724</v>
+        <v>0.10698105752905779</v>
       </c>
       <c r="F58" s="0">
-        <v>0.792649423569041</v>
+        <v>0.79197876960166447</v>
       </c>
     </row>
     <row r="59">
@@ -1255,16 +1255,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C59" s="0">
-        <v>30.949809800000001</v>
+        <v>16.431376799999999</v>
       </c>
       <c r="D59" s="0">
-        <v>10.934914381147006</v>
+        <v>10.920548506347075</v>
       </c>
       <c r="E59" s="0">
-        <v>0.245673262037513</v>
+        <v>0.24442299487468547</v>
       </c>
       <c r="F59" s="0">
-        <v>0.508876485544969</v>
+        <v>0.50971882927938372</v>
       </c>
     </row>
     <row r="60">
@@ -1275,16 +1275,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C60" s="0">
-        <v>30.7513489</v>
+        <v>12.212570700000001</v>
       </c>
       <c r="D60" s="0">
-        <v>10.461973684675456</v>
+        <v>10.486867506194482</v>
       </c>
       <c r="E60" s="0">
-        <v>0.17104066702512916</v>
+        <v>0.17126363878031389</v>
       </c>
       <c r="F60" s="0">
-        <v>0.76910610697280091</v>
+        <v>0.76690499909866305</v>
       </c>
     </row>
     <row r="61">
@@ -1295,16 +1295,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C61" s="0">
-        <v>31.2113394</v>
+        <v>16.679670699999999</v>
       </c>
       <c r="D61" s="0">
-        <v>12.050910361591106</v>
+        <v>12.063445942675848</v>
       </c>
       <c r="E61" s="0">
-        <v>0.093807710785132739</v>
+        <v>0.094270441438512625</v>
       </c>
       <c r="F61" s="0">
-        <v>0.4748337135122967</v>
+        <v>0.47414892201674536</v>
       </c>
     </row>
     <row r="62">
@@ -1315,16 +1315,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C62" s="0">
-        <v>31.075808899999998</v>
+        <v>16.945871</v>
       </c>
       <c r="D62" s="0">
-        <v>11.102127693560808</v>
+        <v>11.098891491223535</v>
       </c>
       <c r="E62" s="0">
-        <v>0.075023226567229415</v>
+        <v>0.074366385206186075</v>
       </c>
       <c r="F62" s="0">
-        <v>0.6661947446229225</v>
+        <v>0.66644300274745438</v>
       </c>
     </row>
     <row r="63">
@@ -1335,16 +1335,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C63" s="0">
-        <v>31.012740300000001</v>
+        <v>16.426362900000001</v>
       </c>
       <c r="D63" s="0">
-        <v>11.76600823731896</v>
+        <v>11.782007678629416</v>
       </c>
       <c r="E63" s="0">
-        <v>0.10588117186820754</v>
+        <v>0.10734209750916986</v>
       </c>
       <c r="F63" s="0">
-        <v>0.64315056669334769</v>
+        <v>0.64196697136400682</v>
       </c>
     </row>
     <row r="64">
@@ -1355,16 +1355,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C64" s="0">
-        <v>30.955862199999999</v>
+        <v>16.2920588</v>
       </c>
       <c r="D64" s="0">
-        <v>10.635265427888715</v>
+        <v>10.641532615262342</v>
       </c>
       <c r="E64" s="0">
-        <v>0.10320174558333149</v>
+        <v>0.10363066389558034</v>
       </c>
       <c r="F64" s="0">
-        <v>0.73922718001993792</v>
+        <v>0.73869399292578808</v>
       </c>
     </row>
     <row r="65">
@@ -1375,16 +1375,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C65" s="0">
-        <v>24.3019435</v>
+        <v>9.8324374999999993</v>
       </c>
       <c r="D65" s="0">
-        <v>8.6550678059469508</v>
+        <v>8.6279655348257798</v>
       </c>
       <c r="E65" s="0">
-        <v>0.076245404938480019</v>
+        <v>0.076713313833645977</v>
       </c>
       <c r="F65" s="0">
-        <v>1.0835797617422986</v>
+        <v>1.0869660973438831</v>
       </c>
     </row>
     <row r="66">
@@ -1395,16 +1395,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C66" s="0">
-        <v>31.021051100000001</v>
+        <v>13.402798799999999</v>
       </c>
       <c r="D66" s="0">
-        <v>10.559529467085614</v>
+        <v>10.558884575567482</v>
       </c>
       <c r="E66" s="0">
-        <v>0.13005306206040762</v>
+        <v>0.13160432917243439</v>
       </c>
       <c r="F66" s="0">
-        <v>0.74828597517938222</v>
+        <v>0.74834153439245676</v>
       </c>
     </row>
     <row r="67">
@@ -1415,16 +1415,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C67" s="0">
-        <v>24.9900339</v>
+        <v>9.3915482000000008</v>
       </c>
       <c r="D67" s="0">
-        <v>11.000279767422196</v>
+        <v>10.995392415658451</v>
       </c>
       <c r="E67" s="0">
-        <v>0.10474618960571037</v>
+        <v>0.10438728854639753</v>
       </c>
       <c r="F67" s="0">
-        <v>0.6142704878828108</v>
+        <v>0.614616221118926</v>
       </c>
     </row>
     <row r="68">
@@ -1435,16 +1435,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C68" s="0">
-        <v>30.884961000000001</v>
+        <v>11.122783699999999</v>
       </c>
       <c r="D68" s="0">
-        <v>9.3347097843906912</v>
+        <v>9.330694325173825</v>
       </c>
       <c r="E68" s="0">
-        <v>0.075321043417431108</v>
+        <v>0.075037759849406319</v>
       </c>
       <c r="F68" s="0">
-        <v>0.91052946642982735</v>
+        <v>0.91095049862621635</v>
       </c>
     </row>
     <row r="69">
@@ -1455,16 +1455,16 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="C69" s="0">
-        <v>30.405012899999999</v>
+        <v>11.129952400000001</v>
       </c>
       <c r="D69" s="0">
-        <v>8.8851017479928505</v>
+        <v>8.9148454956577048</v>
       </c>
       <c r="E69" s="0">
-        <v>0.10337984639762104</v>
+        <v>0.10275363920056171</v>
       </c>
       <c r="F69" s="0">
-        <v>0.57440802253013368</v>
+        <v>0.57244439778434941</v>
       </c>
     </row>
   </sheetData>
